--- a/figures/selectivity_figure.xlsx
+++ b/figures/selectivity_figure.xlsx
@@ -7569,7 +7569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Low</c:v>
+                  <c:v>Hi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7577,28 +7577,15 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="65000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:tint val="65000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7754,136 +7741,136 @@
                   <c:v>3.1013494895656102E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4773101519645381E-7</c:v>
+                  <c:v>4.8272462606175473E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4456433108688158E-6</c:v>
+                  <c:v>0.12425417250421189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0713399333006982E-5</c:v>
+                  <c:v>0.23340591621599932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3483937894830666E-3</c:v>
+                  <c:v>0.37562883763116223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4989758432687902E-2</c:v>
+                  <c:v>0.54203821582786138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.67819647960204E-2</c:v>
+                  <c:v>0.71380287231529715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36285980828892139</c:v>
+                  <c:v>0.86459914644312852</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78999097854372002</c:v>
+                  <c:v>0.96683662580195406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99995928683148949</c:v>
+                  <c:v>0.99999417733723794</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999993610474958</c:v>
+                  <c:v>0.99999998959644065</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99999997726320866</c:v>
+                  <c:v>0.99999999491269675</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99999998650421718</c:v>
+                  <c:v>0.99999999547745111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99999999073219792</c:v>
+                  <c:v>0.99999999548593166</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99999999292584663</c:v>
+                  <c:v>0.99999999542839313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99999999416098695</c:v>
+                  <c:v>0.99999999542419316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99999999492705394</c:v>
+                  <c:v>0.99999999549488972</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99999999544271334</c:v>
+                  <c:v>0.9999999956257476</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9999999958115342</c:v>
+                  <c:v>0.99999999579108567</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99999999608753376</c:v>
+                  <c:v>0.99999999596702338</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99999999630138547</c:v>
+                  <c:v>0.99999999613674906</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99999999647171034</c:v>
+                  <c:v>0.99999999629108138</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99999999661042771</c:v>
+                  <c:v>0.99999999642671933</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99999999672550322</c:v>
+                  <c:v>0.999999996543948</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99999999682245233</c:v>
+                  <c:v>0.99999999664475148</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99999999690521013</c:v>
+                  <c:v>0.99999999673161144</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99999999697665665</c:v>
+                  <c:v>0.99999999680689688</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99999999703894682</c:v>
+                  <c:v>0.99999999687263419</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99999999709372345</c:v>
+                  <c:v>0.99999999693047348</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99999999714226062</c:v>
+                  <c:v>0.99999999698173347</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.9999999971855611</c:v>
+                  <c:v>0.99999999702746545</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9999999972244249</c:v>
+                  <c:v>0.99999999706851206</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.99999999725949706</c:v>
+                  <c:v>0.99999999710555432</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9999999972913044</c:v>
+                  <c:v>0.99999999713914844</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99999999732028055</c:v>
+                  <c:v>0.9999999971697523</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99999999734678624</c:v>
+                  <c:v>0.9999999971977469</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.999999997371123</c:v>
+                  <c:v>0.99999999722345068</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99999999739354573</c:v>
+                  <c:v>0.99999999724713295</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.99999999741427092</c:v>
+                  <c:v>0.99999999726902244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.999999997433484</c:v>
+                  <c:v>0.99999999728931477</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.99999999745134371</c:v>
+                  <c:v>0.99999999730817768</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99999999746798818</c:v>
+                  <c:v>0.99999999732575706</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99999999748353685</c:v>
+                  <c:v>0.99999999734217915</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99999999749809432</c:v>
+                  <c:v>0.9999999973575544</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99999999751175206</c:v>
+                  <c:v>0.99999999737197931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7912,26 +7899,15 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -8237,7 +8213,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hi</c:v>
+                  <c:v>Low</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8245,32 +8221,14 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="65000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="65000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -8426,136 +8384,136 @@
                   <c:v>3.1013494895656102E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8272462606175473E-2</c:v>
+                  <c:v>3.4773101519645381E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12425417250421189</c:v>
+                  <c:v>2.4456433108688158E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23340591621599932</c:v>
+                  <c:v>7.0713399333006982E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37562883763116223</c:v>
+                  <c:v>1.3483937894830666E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54203821582786138</c:v>
+                  <c:v>1.4989758432687902E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71380287231529715</c:v>
+                  <c:v>9.67819647960204E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86459914644312852</c:v>
+                  <c:v>0.36285980828892139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96683662580195406</c:v>
+                  <c:v>0.78999097854372002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99999417733723794</c:v>
+                  <c:v>0.99995928683148949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999998959644065</c:v>
+                  <c:v>0.99999993610474958</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99999999491269675</c:v>
+                  <c:v>0.99999997726320866</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99999999547745111</c:v>
+                  <c:v>0.99999998650421718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99999999548593166</c:v>
+                  <c:v>0.99999999073219792</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99999999542839313</c:v>
+                  <c:v>0.99999999292584663</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99999999542419316</c:v>
+                  <c:v>0.99999999416098695</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99999999549488972</c:v>
+                  <c:v>0.99999999492705394</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9999999956257476</c:v>
+                  <c:v>0.99999999544271334</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99999999579108567</c:v>
+                  <c:v>0.9999999958115342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99999999596702338</c:v>
+                  <c:v>0.99999999608753376</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99999999613674906</c:v>
+                  <c:v>0.99999999630138547</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99999999629108138</c:v>
+                  <c:v>0.99999999647171034</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99999999642671933</c:v>
+                  <c:v>0.99999999661042771</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.999999996543948</c:v>
+                  <c:v>0.99999999672550322</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99999999664475148</c:v>
+                  <c:v>0.99999999682245233</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99999999673161144</c:v>
+                  <c:v>0.99999999690521013</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99999999680689688</c:v>
+                  <c:v>0.99999999697665665</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99999999687263419</c:v>
+                  <c:v>0.99999999703894682</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99999999693047348</c:v>
+                  <c:v>0.99999999709372345</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99999999698173347</c:v>
+                  <c:v>0.99999999714226062</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99999999702746545</c:v>
+                  <c:v>0.9999999971855611</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99999999706851206</c:v>
+                  <c:v>0.9999999972244249</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.99999999710555432</c:v>
+                  <c:v>0.99999999725949706</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99999999713914844</c:v>
+                  <c:v>0.9999999972913044</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9999999971697523</c:v>
+                  <c:v>0.99999999732028055</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.9999999971977469</c:v>
+                  <c:v>0.99999999734678624</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99999999722345068</c:v>
+                  <c:v>0.999999997371123</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99999999724713295</c:v>
+                  <c:v>0.99999999739354573</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.99999999726902244</c:v>
+                  <c:v>0.99999999741427092</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.99999999728931477</c:v>
+                  <c:v>0.999999997433484</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.99999999730817768</c:v>
+                  <c:v>0.99999999745134371</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99999999732575706</c:v>
+                  <c:v>0.99999999746798818</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99999999734217915</c:v>
+                  <c:v>0.99999999748353685</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.9999999973575544</c:v>
+                  <c:v>0.99999999749809432</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99999999737197931</c:v>
+                  <c:v>0.99999999751175206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8644,7 +8602,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8687,6 +8645,8 @@
         <c:axId val="391126512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11683,8 +11643,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P110" sqref="P110"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W102" sqref="W102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16112,13 +16072,13 @@
         <v>44</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U112" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
@@ -16218,13 +16178,13 @@
         <v>29</v>
       </c>
       <c r="T114" s="3">
-        <v>3.4773101519645381E-7</v>
+        <v>4.8272462606175473E-2</v>
       </c>
       <c r="U114" s="3">
         <v>1.5128556512963652E-3</v>
       </c>
       <c r="V114" s="3">
-        <v>4.8272462606175473E-2</v>
+        <v>3.4773101519645381E-7</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
@@ -16271,13 +16231,13 @@
         <v>32</v>
       </c>
       <c r="T115" s="3">
-        <v>2.4456433108688158E-6</v>
+        <v>0.12425417250421189</v>
       </c>
       <c r="U115" s="3">
         <v>7.8607957066334343E-3</v>
       </c>
       <c r="V115" s="3">
-        <v>0.12425417250421189</v>
+        <v>2.4456433108688158E-6</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
@@ -16324,13 +16284,13 @@
         <v>35</v>
       </c>
       <c r="T116" s="3">
-        <v>7.0713399333006982E-5</v>
+        <v>0.23340591621599932</v>
       </c>
       <c r="U116" s="3">
         <v>2.9342993385574979E-2</v>
       </c>
       <c r="V116" s="3">
-        <v>0.23340591621599932</v>
+        <v>7.0713399333006982E-5</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
@@ -16377,13 +16337,13 @@
         <v>38</v>
       </c>
       <c r="T117" s="3">
-        <v>1.3483937894830666E-3</v>
+        <v>0.37562883763116223</v>
       </c>
       <c r="U117" s="3">
         <v>8.7605336484972138E-2</v>
       </c>
       <c r="V117" s="3">
-        <v>0.37562883763116223</v>
+        <v>1.3483937894830666E-3</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.2">
@@ -16430,13 +16390,13 @@
         <v>41</v>
       </c>
       <c r="T118" s="3">
-        <v>1.4989758432687902E-2</v>
+        <v>0.54203821582786138</v>
       </c>
       <c r="U118" s="3">
         <v>0.21298946801993576</v>
       </c>
       <c r="V118" s="3">
-        <v>0.54203821582786138</v>
+        <v>1.4989758432687902E-2</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.2">
@@ -16483,13 +16443,13 @@
         <v>44</v>
       </c>
       <c r="T119" s="3">
-        <v>9.67819647960204E-2</v>
+        <v>0.71380287231529715</v>
       </c>
       <c r="U119" s="3">
         <v>0.42334163010549292</v>
       </c>
       <c r="V119" s="3">
-        <v>0.71380287231529715</v>
+        <v>9.67819647960204E-2</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.2">
@@ -16536,13 +16496,13 @@
         <v>47</v>
       </c>
       <c r="T120" s="3">
-        <v>0.36285980828892139</v>
+        <v>0.86459914644312852</v>
       </c>
       <c r="U120" s="3">
         <v>0.6886038235317663</v>
       </c>
       <c r="V120" s="3">
-        <v>0.86459914644312852</v>
+        <v>0.36285980828892139</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.2">
@@ -16589,13 +16549,13 @@
         <v>50</v>
       </c>
       <c r="T121" s="3">
-        <v>0.78999097854372002</v>
+        <v>0.96683662580195406</v>
       </c>
       <c r="U121" s="3">
         <v>0.91690375690637138</v>
       </c>
       <c r="V121" s="3">
-        <v>0.96683662580195406</v>
+        <v>0.78999097854372002</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.2">
@@ -16642,13 +16602,13 @@
         <v>53</v>
       </c>
       <c r="T122" s="3">
-        <v>0.99995928683148949</v>
+        <v>0.99999417733723794</v>
       </c>
       <c r="U122" s="3">
         <v>0.99998501124218531</v>
       </c>
       <c r="V122" s="3">
-        <v>0.99999417733723794</v>
+        <v>0.99995928683148949</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.2">
@@ -16695,13 +16655,13 @@
         <v>56</v>
       </c>
       <c r="T123" s="3">
-        <v>0.99999993610474958</v>
+        <v>0.99999998959644065</v>
       </c>
       <c r="U123" s="3">
         <v>0.99999997415232478</v>
       </c>
       <c r="V123" s="3">
-        <v>0.99999998959644065</v>
+        <v>0.99999993610474958</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.2">
@@ -16748,13 +16708,13 @@
         <v>59</v>
       </c>
       <c r="T124" s="3">
-        <v>0.99999997726320866</v>
+        <v>0.99999999491269675</v>
       </c>
       <c r="U124" s="3">
         <v>0.99999998848333638</v>
       </c>
       <c r="V124" s="3">
-        <v>0.99999999491269675</v>
+        <v>0.99999997726320866</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.2">
@@ -16801,13 +16761,13 @@
         <v>62</v>
       </c>
       <c r="T125" s="3">
-        <v>0.99999998650421718</v>
+        <v>0.99999999547745111</v>
       </c>
       <c r="U125" s="3">
         <v>0.99999999107487492</v>
       </c>
       <c r="V125" s="3">
-        <v>0.99999999547745111</v>
+        <v>0.99999998650421718</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.2">
@@ -16854,13 +16814,13 @@
         <v>65</v>
       </c>
       <c r="T126" s="3">
-        <v>0.99999999073219792</v>
+        <v>0.99999999548593166</v>
       </c>
       <c r="U126" s="3">
         <v>0.99999999241613025</v>
       </c>
       <c r="V126" s="3">
-        <v>0.99999999548593166</v>
+        <v>0.99999999073219792</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.2">
@@ -16907,13 +16867,13 @@
         <v>68</v>
       </c>
       <c r="T127" s="3">
-        <v>0.99999999292584663</v>
+        <v>0.99999999542839313</v>
       </c>
       <c r="U127" s="3">
         <v>0.99999999345968549</v>
       </c>
       <c r="V127" s="3">
-        <v>0.99999999542839313</v>
+        <v>0.99999999292584663</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.2">
@@ -16960,13 +16920,13 @@
         <v>71</v>
       </c>
       <c r="T128" s="3">
-        <v>0.99999999416098695</v>
+        <v>0.99999999542419316</v>
       </c>
       <c r="U128" s="3">
         <v>0.99999999430573094</v>
       </c>
       <c r="V128" s="3">
-        <v>0.99999999542419316</v>
+        <v>0.99999999416098695</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
@@ -17013,13 +16973,13 @@
         <v>74</v>
       </c>
       <c r="T129" s="3">
-        <v>0.99999999492705394</v>
+        <v>0.99999999549488972</v>
       </c>
       <c r="U129" s="3">
         <v>0.99999999495964464</v>
       </c>
       <c r="V129" s="3">
-        <v>0.99999999549488972</v>
+        <v>0.99999999492705394</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.2">
@@ -17066,13 +17026,13 @@
         <v>77</v>
       </c>
       <c r="T130" s="3">
-        <v>0.99999999544271334</v>
+        <v>0.9999999956257476</v>
       </c>
       <c r="U130" s="3">
         <v>0.99999999544793772</v>
       </c>
       <c r="V130" s="3">
-        <v>0.9999999956257476</v>
+        <v>0.99999999544271334</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
@@ -17119,13 +17079,13 @@
         <v>80</v>
       </c>
       <c r="T131" s="3">
-        <v>0.9999999958115342</v>
+        <v>0.99999999579108567</v>
       </c>
       <c r="U131" s="3">
         <v>0.99999999581121868</v>
       </c>
       <c r="V131" s="3">
-        <v>0.99999999579108567</v>
+        <v>0.9999999958115342</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.2">
@@ -17172,13 +17132,13 @@
         <v>83</v>
       </c>
       <c r="T132" s="3">
-        <v>0.99999999608753376</v>
+        <v>0.99999999596702338</v>
       </c>
       <c r="U132" s="3">
         <v>0.99999999608634316</v>
       </c>
       <c r="V132" s="3">
-        <v>0.99999999596702338</v>
+        <v>0.99999999608753376</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.2">
@@ -17225,13 +17185,13 @@
         <v>86</v>
       </c>
       <c r="T133" s="3">
-        <v>0.99999999630138547</v>
+        <v>0.99999999613674906</v>
       </c>
       <c r="U133" s="3">
         <v>0.99999999630013103</v>
       </c>
       <c r="V133" s="3">
-        <v>0.99999999613674906</v>
+        <v>0.99999999630138547</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
@@ -17278,13 +17238,13 @@
         <v>89</v>
       </c>
       <c r="T134" s="3">
-        <v>0.99999999647171034</v>
+        <v>0.99999999629108138</v>
       </c>
       <c r="U134" s="3">
         <v>0.99999999647049842</v>
       </c>
       <c r="V134" s="3">
-        <v>0.99999999629108138</v>
+        <v>0.99999999647171034</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.2">
@@ -17331,13 +17291,13 @@
         <v>92</v>
       </c>
       <c r="T135" s="3">
-        <v>0.99999999661042771</v>
+        <v>0.99999999642671933</v>
       </c>
       <c r="U135" s="3">
         <v>0.99999999660926198</v>
       </c>
       <c r="V135" s="3">
-        <v>0.99999999642671933</v>
+        <v>0.99999999661042771</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
@@ -17384,13 +17344,13 @@
         <v>95</v>
       </c>
       <c r="T136" s="3">
-        <v>0.99999999672550322</v>
+        <v>0.999999996543948</v>
       </c>
       <c r="U136" s="3">
         <v>0.999999996724377</v>
       </c>
       <c r="V136" s="3">
-        <v>0.999999996543948</v>
+        <v>0.99999999672550322</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.2">
@@ -17437,13 +17397,13 @@
         <v>98</v>
       </c>
       <c r="T137" s="3">
-        <v>0.99999999682245233</v>
+        <v>0.99999999664475148</v>
       </c>
       <c r="U137" s="3">
         <v>0.99999999682135943</v>
       </c>
       <c r="V137" s="3">
-        <v>0.99999999664475148</v>
+        <v>0.99999999682245233</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
@@ -17490,13 +17450,13 @@
         <v>101</v>
       </c>
       <c r="T138" s="3">
-        <v>0.99999999690521013</v>
+        <v>0.99999999673161144</v>
       </c>
       <c r="U138" s="3">
         <v>0.99999999690414565</v>
       </c>
       <c r="V138" s="3">
-        <v>0.99999999673161144</v>
+        <v>0.99999999690521013</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
@@ -17543,13 +17503,13 @@
         <v>104</v>
       </c>
       <c r="T139" s="3">
-        <v>0.99999999697665665</v>
+        <v>0.99999999680689688</v>
       </c>
       <c r="U139" s="3">
         <v>0.99999999697561681</v>
       </c>
       <c r="V139" s="3">
-        <v>0.99999999680689688</v>
+        <v>0.99999999697665665</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
@@ -17596,13 +17556,13 @@
         <v>107</v>
       </c>
       <c r="T140" s="3">
-        <v>0.99999999703894682</v>
+        <v>0.99999999687263419</v>
       </c>
       <c r="U140" s="3">
         <v>0.99999999703792841</v>
       </c>
       <c r="V140" s="3">
-        <v>0.99999999687263419</v>
+        <v>0.99999999703894682</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
@@ -17649,13 +17609,13 @@
         <v>110</v>
       </c>
       <c r="T141" s="3">
-        <v>0.99999999709372345</v>
+        <v>0.99999999693047348</v>
       </c>
       <c r="U141" s="3">
         <v>0.9999999970927238</v>
       </c>
       <c r="V141" s="3">
-        <v>0.99999999693047348</v>
+        <v>0.99999999709372345</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
@@ -17702,13 +17662,13 @@
         <v>113</v>
       </c>
       <c r="T142" s="3">
-        <v>0.99999999714226062</v>
+        <v>0.99999999698173347</v>
       </c>
       <c r="U142" s="3">
         <v>0.99999999714127763</v>
       </c>
       <c r="V142" s="3">
-        <v>0.99999999698173347</v>
+        <v>0.99999999714226062</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.2">
@@ -17755,13 +17715,13 @@
         <v>116</v>
       </c>
       <c r="T143" s="3">
-        <v>0.9999999971855611</v>
+        <v>0.99999999702746545</v>
       </c>
       <c r="U143" s="3">
         <v>0.99999999718459309</v>
       </c>
       <c r="V143" s="3">
-        <v>0.99999999702746545</v>
+        <v>0.9999999971855611</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.2">
@@ -17808,13 +17768,13 @@
         <v>119</v>
       </c>
       <c r="T144" s="3">
-        <v>0.9999999972244249</v>
+        <v>0.99999999706851206</v>
       </c>
       <c r="U144" s="3">
         <v>0.99999999722347022</v>
       </c>
       <c r="V144" s="3">
-        <v>0.99999999706851206</v>
+        <v>0.9999999972244249</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.2">
@@ -17861,13 +17821,13 @@
         <v>122</v>
       </c>
       <c r="T145" s="3">
-        <v>0.99999999725949706</v>
+        <v>0.99999999710555432</v>
       </c>
       <c r="U145" s="3">
         <v>0.99999999725855437</v>
       </c>
       <c r="V145" s="3">
-        <v>0.99999999710555432</v>
+        <v>0.99999999725949706</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.2">
@@ -17914,13 +17874,13 @@
         <v>125</v>
       </c>
       <c r="T146" s="3">
-        <v>0.9999999972913044</v>
+        <v>0.99999999713914844</v>
       </c>
       <c r="U146" s="3">
         <v>0.99999999729037281</v>
       </c>
       <c r="V146" s="3">
-        <v>0.99999999713914844</v>
+        <v>0.9999999972913044</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.2">
@@ -17967,13 +17927,13 @@
         <v>128</v>
       </c>
       <c r="T147" s="3">
-        <v>0.99999999732028055</v>
+        <v>0.9999999971697523</v>
       </c>
       <c r="U147" s="3">
         <v>0.99999999731935896</v>
       </c>
       <c r="V147" s="3">
-        <v>0.9999999971697523</v>
+        <v>0.99999999732028055</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.2">
@@ -18020,13 +17980,13 @@
         <v>131</v>
       </c>
       <c r="T148" s="3">
-        <v>0.99999999734678624</v>
+        <v>0.9999999971977469</v>
       </c>
       <c r="U148" s="3">
         <v>0.99999999734587375</v>
       </c>
       <c r="V148" s="3">
-        <v>0.9999999971977469</v>
+        <v>0.99999999734678624</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.2">
@@ -18073,13 +18033,13 @@
         <v>134</v>
       </c>
       <c r="T149" s="3">
-        <v>0.999999997371123</v>
+        <v>0.99999999722345068</v>
       </c>
       <c r="U149" s="3">
         <v>0.99999999737021883</v>
       </c>
       <c r="V149" s="3">
-        <v>0.99999999722345068</v>
+        <v>0.999999997371123</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.2">
@@ -18126,13 +18086,13 @@
         <v>137</v>
       </c>
       <c r="T150" s="3">
-        <v>0.99999999739354573</v>
+        <v>0.99999999724713295</v>
       </c>
       <c r="U150" s="3">
         <v>0.99999999739264922</v>
       </c>
       <c r="V150" s="3">
-        <v>0.99999999724713295</v>
+        <v>0.99999999739354573</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.2">
@@ -18152,13 +18112,13 @@
         <v>140</v>
       </c>
       <c r="T151" s="3">
-        <v>0.99999999741427092</v>
+        <v>0.99999999726902244</v>
       </c>
       <c r="U151" s="3">
         <v>0.99999999741338153</v>
       </c>
       <c r="V151" s="3">
-        <v>0.99999999726902244</v>
+        <v>0.99999999741427092</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.2">
@@ -18170,13 +18130,13 @@
         <v>143</v>
       </c>
       <c r="T152" s="3">
-        <v>0.999999997433484</v>
+        <v>0.99999999728931477</v>
       </c>
       <c r="U152" s="3">
         <v>0.99999999743260126</v>
       </c>
       <c r="V152" s="3">
-        <v>0.99999999728931477</v>
+        <v>0.999999997433484</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.2">
@@ -18184,13 +18144,13 @@
         <v>146</v>
       </c>
       <c r="T153" s="3">
-        <v>0.99999999745134371</v>
+        <v>0.99999999730817768</v>
       </c>
       <c r="U153" s="3">
         <v>0.99999999745046708</v>
       </c>
       <c r="V153" s="3">
-        <v>0.99999999730817768</v>
+        <v>0.99999999745134371</v>
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.2">
@@ -18198,13 +18158,13 @@
         <v>149</v>
       </c>
       <c r="T154" s="3">
-        <v>0.99999999746798818</v>
+        <v>0.99999999732575706</v>
       </c>
       <c r="U154" s="3">
         <v>0.99999999746711732</v>
       </c>
       <c r="V154" s="3">
-        <v>0.99999999732575706</v>
+        <v>0.99999999746798818</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.2">
@@ -18212,13 +18172,13 @@
         <v>152</v>
       </c>
       <c r="T155" s="3">
-        <v>0.99999999748353685</v>
+        <v>0.99999999734217915</v>
       </c>
       <c r="U155" s="3">
         <v>0.99999999748267132</v>
       </c>
       <c r="V155" s="3">
-        <v>0.99999999734217915</v>
+        <v>0.99999999748353685</v>
       </c>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.2">
@@ -18226,13 +18186,13 @@
         <v>155</v>
       </c>
       <c r="T156" s="3">
-        <v>0.99999999749809432</v>
+        <v>0.9999999973575544</v>
       </c>
       <c r="U156" s="3">
         <v>0.99999999749723378</v>
       </c>
       <c r="V156" s="3">
-        <v>0.9999999973575544</v>
+        <v>0.99999999749809432</v>
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.2">
@@ -18240,13 +18200,13 @@
         <v>158</v>
       </c>
       <c r="T157" s="3">
-        <v>0.99999999751175206</v>
+        <v>0.99999999737197931</v>
       </c>
       <c r="U157" s="3">
         <v>0.99999999751089619</v>
       </c>
       <c r="V157" s="3">
-        <v>0.99999999737197931</v>
+        <v>0.99999999751175206</v>
       </c>
     </row>
   </sheetData>
@@ -18262,8 +18222,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId4" name="ScrollBar6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="Q12" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="ScrollBar1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="Q7" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="ScrollBar1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="ScrollBar2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="Q8" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId6" name="ScrollBar2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId8" name="ScrollBar3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="Q9" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId8" name="ScrollBar3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId10" name="ScrollBar4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="Q10" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId10" name="ScrollBar4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId12" name="ScrollBar5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="Q11" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId12" name="ScrollBar5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId14" name="ScrollBar6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="Q12" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -18282,132 +18367,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId4" name="ScrollBar6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId6" name="ScrollBar5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="Q11" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId6" name="ScrollBar5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="ScrollBar4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="Q10" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="ScrollBar4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId10" name="ScrollBar3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="Q9" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId10" name="ScrollBar3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId12" name="ScrollBar2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="Q8" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId12" name="ScrollBar2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId14" name="ScrollBar1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="Q7" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId14" name="ScrollBar1"/>
+        <control shapeId="1030" r:id="rId14" name="ScrollBar6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
